--- a/Dragonfall/gameData/shared/Errors.xlsx
+++ b/Dragonfall/gameData/shared/Errors.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26122"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5720" yWindow="300" windowWidth="28360" windowHeight="19660" tabRatio="883"/>
+    <workbookView xWindow="3320" yWindow="440" windowWidth="28360" windowHeight="19660" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="errors" sheetId="24" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="428">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -1108,9 +1108,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>目标联盟未处于和平期,不能发起复仇</t>
-  </si>
-  <si>
     <t>targetAllianceNotInPeaceStatus</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -1235,22 +1232,10 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>此GameCenter账号未被其他玩家绑定</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前玩家还未绑定GameCenter账号</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>此GameCenter账号已绑定当前玩家</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>ApnId已经设置</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>theSoldierIsLocked</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -1311,12 +1296,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>playerAlreadyBindGCAId</t>
-  </si>
-  <si>
-    <t>theGCIdAlreadyBindedByOtherPlayer</t>
-  </si>
-  <si>
     <t>玩家GameCenter账号已经绑定</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -1325,15 +1304,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>theGCIdIsNotBindedByOtherPlayer</t>
-  </si>
-  <si>
-    <t>thePlayerDoNotBindGCId</t>
-  </si>
-  <si>
-    <t>theGCIdAlreadyBindedByCurrentPlayer</t>
-  </si>
-  <si>
     <t>玩家未在当前服务器</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -1358,9 +1328,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>apnIdAlreadySeted</t>
-  </si>
-  <si>
     <t>服务器繁忙</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -1550,6 +1517,107 @@
   </si>
   <si>
     <t>theRewardsAlreadyGetedFromThisMail</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家被禁言</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>playerIsForbiddenToSpeak</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>不能观察自己的联盟</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>canNotViewYourOwnAlliance</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有空闲的地图区域</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>noFreeMapArea</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家未观察此地块</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>playerNotViewThisMapIndex</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>canNotMoveAllianceRightNow</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前还不能移动联盟</t>
+  </si>
+  <si>
+    <t>不能移动到目标地块</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>canNotMoveToTargetMapIndex</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标联盟未处于和平期</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家将被攻打,不能退出联盟</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>canNotQuitAllianceForPlayerWillBeAttacked</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>您有商品正在出售,不能切换服务器</t>
+  </si>
+  <si>
+    <t>联盟宫殿等级过低,不能移动联盟</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>alliancePalaceLevelTooLowCanNotMoveAlliance</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>youHaveProductInSellCanNotSwitchServer</t>
+  </si>
+  <si>
+    <t>pushIdAlreadySeted</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>pushId已经设置</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>playerAlreadyBindGC</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>theGCAlreadyBindedByOtherPlayer</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>theGCAlreadyBindedByCurrentPlayer</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家还未绑定GC</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>playerNotBindGC</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1688,7 +1756,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1774">
+  <cellStyleXfs count="1808">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -3467,6 +3535,40 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3480,7 +3582,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1774">
+  <cellStyles count="1808">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -4370,6 +4472,23 @@
     <cellStyle name="超链接" xfId="1768" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1770" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1772" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1774" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1776" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1778" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1780" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1782" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1784" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1786" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1788" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1790" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1792" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1794" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1796" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1798" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1800" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1802" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1804" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1806" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -5252,6 +5371,23 @@
     <cellStyle name="访问过的超链接" xfId="1769" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1771" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1773" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1775" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1777" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1779" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1781" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1783" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1785" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1787" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1789" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1791" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1793" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1795" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1797" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1799" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1801" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1803" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1805" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1807" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -5701,15 +5837,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C206"/>
+  <dimension ref="A1:C214"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A180" workbookViewId="0">
-      <selection activeCell="A207" sqref="A207"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A194" workbookViewId="0">
+      <selection activeCell="C214" sqref="C214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="26" style="1" customWidth="1"/>
+    <col min="1" max="1" width="35.33203125" style="1" customWidth="1"/>
     <col min="2" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
@@ -5726,13 +5862,13 @@
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="B2" s="3">
         <v>500</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="20" customHeight="1">
@@ -6122,13 +6258,13 @@
     </row>
     <row r="38" spans="1:3" ht="20" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B38" s="3">
         <v>536</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="20" customHeight="1">
@@ -6881,13 +7017,13 @@
     </row>
     <row r="107" spans="1:3" ht="20" customHeight="1">
       <c r="A107" s="1" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="B107" s="3">
         <v>605</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="20" customHeight="1">
@@ -6936,24 +7072,24 @@
     </row>
     <row r="112" spans="1:3" ht="20" customHeight="1">
       <c r="A112" s="1" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B112" s="3">
         <v>610</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="20" customHeight="1">
       <c r="A113" s="1" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B113" s="3">
         <v>611</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="20" customHeight="1">
@@ -7387,277 +7523,277 @@
     </row>
     <row r="153" spans="1:3" ht="20" customHeight="1">
       <c r="A153" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B153" s="3">
         <v>651</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>295</v>
+        <v>414</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="20" customHeight="1">
       <c r="A154" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B154" s="3">
         <v>652</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="20" customHeight="1">
       <c r="A155" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B155" s="3">
         <v>653</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="20" customHeight="1">
       <c r="A156" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B156" s="3">
         <v>654</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="20" customHeight="1">
       <c r="A157" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B157" s="3">
         <v>655</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="20" customHeight="1">
       <c r="A158" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B158" s="3">
         <v>656</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="20" customHeight="1">
       <c r="A159" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B159" s="3">
         <v>657</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="20" customHeight="1">
       <c r="A160" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B160" s="3">
         <v>658</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="20" customHeight="1">
       <c r="A161" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B161" s="3">
         <v>659</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="20" customHeight="1">
       <c r="A162" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B162" s="3">
         <v>660</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="20" customHeight="1">
       <c r="A163" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B163" s="3">
         <v>661</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="20" customHeight="1">
       <c r="A164" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B164" s="3">
         <v>662</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="20" customHeight="1">
       <c r="A165" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B165" s="3">
         <v>663</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="20" customHeight="1">
       <c r="A166" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B166" s="3">
         <v>664</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="20" customHeight="1">
       <c r="A167" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B167" s="3">
         <v>665</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="20" customHeight="1">
       <c r="A168" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B168" s="3">
         <v>666</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="20" customHeight="1">
       <c r="A169" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B169" s="3">
         <v>667</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="20" customHeight="1">
       <c r="A170" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B170" s="3">
         <v>668</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="20" customHeight="1">
       <c r="A171" s="1" t="s">
-        <v>350</v>
+        <v>423</v>
       </c>
       <c r="B171" s="3">
         <v>669</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="20" customHeight="1">
       <c r="A172" s="1" t="s">
-        <v>351</v>
+        <v>424</v>
       </c>
       <c r="B172" s="3">
         <v>670</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="20" customHeight="1">
       <c r="A173" s="1" t="s">
-        <v>354</v>
+        <v>425</v>
       </c>
       <c r="B173" s="3">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="20" customHeight="1">
       <c r="A174" s="1" t="s">
-        <v>355</v>
+        <v>421</v>
       </c>
       <c r="B174" s="3">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>332</v>
+        <v>422</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="20" customHeight="1">
       <c r="A175" s="1" t="s">
-        <v>356</v>
+        <v>338</v>
       </c>
       <c r="B175" s="3">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="20" customHeight="1">
       <c r="A176" s="1" t="s">
-        <v>363</v>
+        <v>339</v>
       </c>
       <c r="B176" s="3">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>334</v>
+        <v>179</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="20" customHeight="1">
       <c r="A177" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B177" s="3">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="20" customHeight="1">
@@ -7665,10 +7801,10 @@
         <v>343</v>
       </c>
       <c r="B178" s="3">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>179</v>
+        <v>342</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="20" customHeight="1">
@@ -7676,7 +7812,7 @@
         <v>345</v>
       </c>
       <c r="B179" s="3">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>344</v>
@@ -7684,299 +7820,387 @@
     </row>
     <row r="180" spans="1:3" ht="20" customHeight="1">
       <c r="A180" s="1" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B180" s="3">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="20" customHeight="1">
       <c r="A181" s="1" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B181" s="3">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="20" customHeight="1">
       <c r="A182" s="1" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="B182" s="3">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="20" customHeight="1">
       <c r="A183" s="1" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="B183" s="3">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="20" customHeight="1">
       <c r="A184" s="1" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="B184" s="3">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="20" customHeight="1">
       <c r="A185" s="1" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B185" s="3">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="20" customHeight="1">
       <c r="A186" s="1" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B186" s="3">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="20" customHeight="1">
       <c r="A187" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="B187" s="3">
-        <v>685</v>
+        <v>366</v>
+      </c>
+      <c r="B187" s="1">
+        <v>687</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="20" customHeight="1">
       <c r="A188" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="B188" s="3">
-        <v>686</v>
+        <v>367</v>
+      </c>
+      <c r="B188" s="1">
+        <v>688</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="20" customHeight="1">
       <c r="A189" s="1" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="B189" s="1">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="20" customHeight="1">
       <c r="A190" s="1" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="B190" s="1">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="20" customHeight="1">
       <c r="A191" s="1" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B191" s="1">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="20" customHeight="1">
       <c r="A192" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B192" s="1">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="20" customHeight="1">
       <c r="A193" s="1" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="B193" s="1">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="20" customHeight="1">
       <c r="A194" s="1" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="B194" s="1">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
     </row>
     <row r="195" spans="1:3" ht="20" customHeight="1">
       <c r="A195" s="1" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="B195" s="1">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="20" customHeight="1">
       <c r="A196" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="B196" s="1">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="20" customHeight="1">
       <c r="A197" s="1" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="B197" s="1">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="20" customHeight="1">
       <c r="A198" s="1" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="B198" s="1">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="20" customHeight="1">
       <c r="A199" s="1" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="B199" s="1">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="20" customHeight="1">
       <c r="A200" s="1" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="B200" s="1">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="20" customHeight="1">
       <c r="A201" s="1" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="B201" s="1">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="20" customHeight="1">
       <c r="A202" s="1" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="B202" s="1">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
     </row>
     <row r="203" spans="1:3" ht="20" customHeight="1">
       <c r="A203" s="1" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="B203" s="1">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="20" customHeight="1">
       <c r="A204" s="1" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="B204" s="1">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="20" customHeight="1">
       <c r="A205" s="1" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="B205" s="1">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="20" customHeight="1">
       <c r="A206" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B206" s="1">
+        <v>706</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" ht="20" customHeight="1">
+      <c r="A207" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B207" s="1">
+        <v>707</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" ht="20" customHeight="1">
+      <c r="A208" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B208" s="1">
+        <v>708</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" ht="20" customHeight="1">
+      <c r="A209" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B209" s="1">
+        <v>709</v>
+      </c>
+      <c r="C209" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="B206" s="1">
-        <v>704</v>
-      </c>
-      <c r="C206" s="1" t="s">
-        <v>410</v>
+    </row>
+    <row r="210" spans="1:3" ht="20" customHeight="1">
+      <c r="A210" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B210" s="1">
+        <v>710</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" ht="20" customHeight="1">
+      <c r="A211" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B211" s="1">
+        <v>711</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" ht="20" customHeight="1">
+      <c r="A212" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B212" s="1">
+        <v>712</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" ht="20" customHeight="1">
+      <c r="A213" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B213" s="1">
+        <v>713</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" ht="20" customHeight="1">
+      <c r="A214" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B214" s="1">
+        <v>714</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>426</v>
       </c>
     </row>
   </sheetData>

--- a/Dragonfall/gameData/shared/Errors.xlsx
+++ b/Dragonfall/gameData/shared/Errors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3320" yWindow="440" windowWidth="28360" windowHeight="19660" tabRatio="883"/>
+    <workbookView xWindow="8460" yWindow="1780" windowWidth="28360" windowHeight="19660" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="errors" sheetId="24" r:id="rId1"/>
@@ -1248,18 +1248,10 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>IAP服务器关闭</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>netErrorWithIapServer</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>iapServerNotAvailable</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>此联盟建筑不允许移动</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -1618,6 +1610,14 @@
   </si>
   <si>
     <t>playerNotBindGC</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>不能迁移到选定的服务器</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>canNotSwitchToTheSelectedServer</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -5839,8 +5839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C214"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A194" workbookViewId="0">
-      <selection activeCell="C214" sqref="C214"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A186" workbookViewId="0">
+      <selection activeCell="A215" sqref="A215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5862,13 +5862,13 @@
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B2" s="3">
         <v>500</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="20" customHeight="1">
@@ -7017,13 +7017,13 @@
     </row>
     <row r="107" spans="1:3" ht="20" customHeight="1">
       <c r="A107" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B107" s="3">
         <v>605</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="20" customHeight="1">
@@ -7072,7 +7072,7 @@
     </row>
     <row r="112" spans="1:3" ht="20" customHeight="1">
       <c r="A112" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B112" s="3">
         <v>610</v>
@@ -7083,695 +7083,695 @@
     </row>
     <row r="113" spans="1:3" ht="20" customHeight="1">
       <c r="A113" s="1" t="s">
-        <v>336</v>
+        <v>218</v>
       </c>
       <c r="B113" s="3">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>334</v>
+        <v>217</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="20" customHeight="1">
       <c r="A114" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B114" s="3">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="20" customHeight="1">
       <c r="A115" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B115" s="3">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="20" customHeight="1">
       <c r="A116" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B116" s="3">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="20" customHeight="1">
       <c r="A117" s="1" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B117" s="3">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="20" customHeight="1">
       <c r="A118" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B118" s="3">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="20" customHeight="1">
       <c r="A119" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B119" s="3">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="20" customHeight="1">
       <c r="A120" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B120" s="3">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="20" customHeight="1">
       <c r="A121" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B121" s="3">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="20" customHeight="1">
       <c r="A122" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B122" s="3">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="20" customHeight="1">
       <c r="A123" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B123" s="3">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="20" customHeight="1">
       <c r="A124" s="1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B124" s="3">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="20" customHeight="1">
       <c r="A125" s="1" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B125" s="3">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="20" customHeight="1">
       <c r="A126" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B126" s="3">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="20" customHeight="1">
       <c r="A127" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B127" s="3">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="20" customHeight="1">
       <c r="A128" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B128" s="3">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="20" customHeight="1">
       <c r="A129" s="1" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B129" s="3">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="20" customHeight="1">
       <c r="A130" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B130" s="3">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="20" customHeight="1">
       <c r="A131" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B131" s="3">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="20" customHeight="1">
       <c r="A132" s="1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B132" s="3">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="20" customHeight="1">
       <c r="A133" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B133" s="3">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="20" customHeight="1">
       <c r="A134" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B134" s="3">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="20" customHeight="1">
       <c r="A135" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B135" s="3">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="20" customHeight="1">
       <c r="A136" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B136" s="3">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="20" customHeight="1">
       <c r="A137" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B137" s="3">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="20" customHeight="1">
       <c r="A138" s="1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B138" s="3">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="20" customHeight="1">
       <c r="A139" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B139" s="3">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="20" customHeight="1">
       <c r="A140" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B140" s="3">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="20" customHeight="1">
       <c r="A141" s="1" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B141" s="3">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="20" customHeight="1">
       <c r="A142" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B142" s="3">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="20" customHeight="1">
       <c r="A143" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B143" s="3">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="20" customHeight="1">
       <c r="A144" s="1" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="B144" s="3">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="20" customHeight="1">
       <c r="A145" s="1" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B145" s="3">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="20" customHeight="1">
       <c r="A146" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B146" s="3">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="20" customHeight="1">
       <c r="A147" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B147" s="3">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="20" customHeight="1">
       <c r="A148" s="1" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B148" s="3">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="20" customHeight="1">
       <c r="A149" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B149" s="3">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="20" customHeight="1">
       <c r="A150" s="1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B150" s="3">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="20" customHeight="1">
       <c r="A151" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B151" s="3">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="20" customHeight="1">
       <c r="A152" s="1" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B152" s="3">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>294</v>
+        <v>412</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="20" customHeight="1">
       <c r="A153" s="1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B153" s="3">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>414</v>
+        <v>296</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="20" customHeight="1">
       <c r="A154" s="1" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B154" s="3">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="20" customHeight="1">
       <c r="A155" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B155" s="3">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="20" customHeight="1">
       <c r="A156" s="1" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B156" s="3">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="20" customHeight="1">
       <c r="A157" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B157" s="3">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="20" customHeight="1">
       <c r="A158" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B158" s="3">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="20" customHeight="1">
       <c r="A159" s="1" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B159" s="3">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="20" customHeight="1">
       <c r="A160" s="1" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B160" s="3">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="20" customHeight="1">
       <c r="A161" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B161" s="3">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="20" customHeight="1">
       <c r="A162" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B162" s="3">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="20" customHeight="1">
       <c r="A163" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B163" s="3">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="20" customHeight="1">
       <c r="A164" s="1" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B164" s="3">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="20" customHeight="1">
       <c r="A165" s="1" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B165" s="3">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="20" customHeight="1">
       <c r="A166" s="1" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B166" s="3">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="20" customHeight="1">
       <c r="A167" s="1" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B167" s="3">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="20" customHeight="1">
       <c r="A168" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B168" s="3">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="20" customHeight="1">
       <c r="A169" s="1" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B169" s="3">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="20" customHeight="1">
       <c r="A170" s="1" t="s">
-        <v>329</v>
+        <v>421</v>
       </c>
       <c r="B170" s="3">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>328</v>
+        <v>344</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="20" customHeight="1">
       <c r="A171" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B171" s="3">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="20" customHeight="1">
       <c r="A172" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B172" s="3">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>347</v>
+        <v>330</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="20" customHeight="1">
       <c r="A173" s="1" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="B173" s="3">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>330</v>
+        <v>420</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="20" customHeight="1">
       <c r="A174" s="1" t="s">
-        <v>421</v>
+        <v>336</v>
       </c>
       <c r="B174" s="3">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>422</v>
+        <v>335</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="20" customHeight="1">
       <c r="A175" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B175" s="3">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>337</v>
+        <v>179</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="20" customHeight="1">
@@ -7779,10 +7779,10 @@
         <v>339</v>
       </c>
       <c r="B176" s="3">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>179</v>
+        <v>338</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="20" customHeight="1">
@@ -7790,7 +7790,7 @@
         <v>341</v>
       </c>
       <c r="B177" s="3">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>340</v>
@@ -7801,7 +7801,7 @@
         <v>343</v>
       </c>
       <c r="B178" s="3">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>342</v>
@@ -7809,13 +7809,13 @@
     </row>
     <row r="179" spans="1:3" ht="20" customHeight="1">
       <c r="A179" s="1" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B179" s="3">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="20" customHeight="1">
@@ -7823,7 +7823,7 @@
         <v>349</v>
       </c>
       <c r="B180" s="3">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>348</v>
@@ -7834,7 +7834,7 @@
         <v>351</v>
       </c>
       <c r="B181" s="3">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>350</v>
@@ -7845,7 +7845,7 @@
         <v>353</v>
       </c>
       <c r="B182" s="3">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>352</v>
@@ -7856,7 +7856,7 @@
         <v>355</v>
       </c>
       <c r="B183" s="3">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>354</v>
@@ -7864,13 +7864,13 @@
     </row>
     <row r="184" spans="1:3" ht="20" customHeight="1">
       <c r="A184" s="1" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B184" s="3">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="20" customHeight="1">
@@ -7878,7 +7878,7 @@
         <v>361</v>
       </c>
       <c r="B185" s="3">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>360</v>
@@ -7886,10 +7886,10 @@
     </row>
     <row r="186" spans="1:3" ht="20" customHeight="1">
       <c r="A186" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="B186" s="3">
-        <v>686</v>
+        <v>364</v>
+      </c>
+      <c r="B186" s="1">
+        <v>687</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>362</v>
@@ -7897,13 +7897,13 @@
     </row>
     <row r="187" spans="1:3" ht="20" customHeight="1">
       <c r="A187" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B187" s="1">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="20" customHeight="1">
@@ -7911,10 +7911,10 @@
         <v>367</v>
       </c>
       <c r="B188" s="1">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="20" customHeight="1">
@@ -7922,7 +7922,7 @@
         <v>369</v>
       </c>
       <c r="B189" s="1">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>368</v>
@@ -7930,13 +7930,13 @@
     </row>
     <row r="190" spans="1:3" ht="20" customHeight="1">
       <c r="A190" s="1" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B190" s="1">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="20" customHeight="1">
@@ -7944,7 +7944,7 @@
         <v>375</v>
       </c>
       <c r="B191" s="1">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>374</v>
@@ -7955,7 +7955,7 @@
         <v>377</v>
       </c>
       <c r="B192" s="1">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>376</v>
@@ -7966,7 +7966,7 @@
         <v>379</v>
       </c>
       <c r="B193" s="1">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>378</v>
@@ -7977,7 +7977,7 @@
         <v>381</v>
       </c>
       <c r="B194" s="1">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>380</v>
@@ -7988,7 +7988,7 @@
         <v>383</v>
       </c>
       <c r="B195" s="1">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>382</v>
@@ -7999,7 +7999,7 @@
         <v>385</v>
       </c>
       <c r="B196" s="1">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>384</v>
@@ -8007,24 +8007,24 @@
     </row>
     <row r="197" spans="1:3" ht="20" customHeight="1">
       <c r="A197" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B197" s="1">
+        <v>698</v>
+      </c>
+      <c r="C197" s="1" t="s">
         <v>387</v>
-      </c>
-      <c r="B197" s="1">
-        <v>697</v>
-      </c>
-      <c r="C197" s="1" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="20" customHeight="1">
       <c r="A198" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B198" s="1">
+        <v>699</v>
+      </c>
+      <c r="C198" s="1" t="s">
         <v>388</v>
-      </c>
-      <c r="B198" s="1">
-        <v>698</v>
-      </c>
-      <c r="C198" s="1" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="20" customHeight="1">
@@ -8032,7 +8032,7 @@
         <v>391</v>
       </c>
       <c r="B199" s="1">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="C199" s="1" t="s">
         <v>390</v>
@@ -8043,7 +8043,7 @@
         <v>393</v>
       </c>
       <c r="B200" s="1">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>392</v>
@@ -8054,7 +8054,7 @@
         <v>395</v>
       </c>
       <c r="B201" s="1">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>394</v>
@@ -8065,7 +8065,7 @@
         <v>397</v>
       </c>
       <c r="B202" s="1">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="C202" s="1" t="s">
         <v>396</v>
@@ -8076,7 +8076,7 @@
         <v>399</v>
       </c>
       <c r="B203" s="1">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>398</v>
@@ -8087,7 +8087,7 @@
         <v>401</v>
       </c>
       <c r="B204" s="1">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="C204" s="1" t="s">
         <v>400</v>
@@ -8098,7 +8098,7 @@
         <v>403</v>
       </c>
       <c r="B205" s="1">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="C205" s="1" t="s">
         <v>402</v>
@@ -8109,7 +8109,7 @@
         <v>405</v>
       </c>
       <c r="B206" s="1">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="C206" s="1" t="s">
         <v>404</v>
@@ -8120,7 +8120,7 @@
         <v>407</v>
       </c>
       <c r="B207" s="1">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="C207" s="1" t="s">
         <v>406</v>
@@ -8128,43 +8128,43 @@
     </row>
     <row r="208" spans="1:3" ht="20" customHeight="1">
       <c r="A208" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B208" s="1">
+        <v>709</v>
+      </c>
+      <c r="C208" s="1" t="s">
         <v>409</v>
-      </c>
-      <c r="B208" s="1">
-        <v>708</v>
-      </c>
-      <c r="C208" s="1" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="209" spans="1:3" ht="20" customHeight="1">
       <c r="A209" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B209" s="1">
+        <v>710</v>
+      </c>
+      <c r="C209" s="1" t="s">
         <v>410</v>
-      </c>
-      <c r="B209" s="1">
-        <v>709</v>
-      </c>
-      <c r="C209" s="1" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="210" spans="1:3" ht="20" customHeight="1">
       <c r="A210" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B210" s="1">
+        <v>711</v>
+      </c>
+      <c r="C210" s="1" t="s">
         <v>413</v>
-      </c>
-      <c r="B210" s="1">
-        <v>710</v>
-      </c>
-      <c r="C210" s="1" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="211" spans="1:3" ht="20" customHeight="1">
       <c r="A211" s="1" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B211" s="1">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="C211" s="1" t="s">
         <v>415</v>
@@ -8172,24 +8172,24 @@
     </row>
     <row r="212" spans="1:3" ht="20" customHeight="1">
       <c r="A212" s="1" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B212" s="1">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="213" spans="1:3" ht="20" customHeight="1">
       <c r="A213" s="1" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="B213" s="1">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="214" spans="1:3" ht="20" customHeight="1">
@@ -8197,7 +8197,7 @@
         <v>427</v>
       </c>
       <c r="B214" s="1">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="C214" s="1" t="s">
         <v>426</v>

--- a/Dragonfall/gameData/shared/Errors.xlsx
+++ b/Dragonfall/gameData/shared/Errors.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="8460" yWindow="1780" windowWidth="28360" windowHeight="19660" tabRatio="883"/>
+    <workbookView xWindow="620" yWindow="360" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="errors" sheetId="24" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="430">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -1618,6 +1618,14 @@
   </si>
   <si>
     <t>canNotSwitchToTheSelectedServer</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>已有龙驻防在城墙</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>alreadyHasDefenceDragon</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1756,7 +1764,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1808">
+  <cellStyleXfs count="1824">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -3569,6 +3577,22 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3582,7 +3606,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1808">
+  <cellStyles count="1824">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -4489,6 +4513,14 @@
     <cellStyle name="超链接" xfId="1802" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1804" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1806" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1808" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1810" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1812" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1814" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1816" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1818" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1820" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1822" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -5388,6 +5420,14 @@
     <cellStyle name="访问过的超链接" xfId="1803" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1805" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1807" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1809" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1811" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1813" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1815" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1817" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1819" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1821" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1823" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -5837,10 +5877,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C214"/>
+  <dimension ref="A1:C215"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A186" workbookViewId="0">
-      <selection activeCell="A215" sqref="A215"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A197" workbookViewId="0">
+      <selection activeCell="B216" sqref="B216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -8203,6 +8243,17 @@
         <v>426</v>
       </c>
     </row>
+    <row r="215" spans="1:3" ht="20" customHeight="1">
+      <c r="A215" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B215" s="3">
+        <v>716</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Dragonfall/gameData/shared/Errors.xlsx
+++ b/Dragonfall/gameData/shared/Errors.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26819"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="620" yWindow="360" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
+    <workbookView xWindow="1980" yWindow="440" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="errors" sheetId="24" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="432">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -1626,6 +1626,14 @@
   </si>
   <si>
     <t>alreadyHasDefenceDragon</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>不需要宝石加速</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>doNotNeedGemSpeedup</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -5877,10 +5885,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C215"/>
+  <dimension ref="A1:C216"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" topLeftCell="A197" workbookViewId="0">
-      <selection activeCell="B216" sqref="B216"/>
+      <selection activeCell="A217" sqref="A217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -8254,6 +8262,17 @@
         <v>428</v>
       </c>
     </row>
+    <row r="216" spans="1:3" ht="20" customHeight="1">
+      <c r="A216" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B216" s="1">
+        <v>717</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Dragonfall/gameData/shared/Errors.xlsx
+++ b/Dragonfall/gameData/shared/Errors.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26819"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="1980" yWindow="440" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="430">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -1533,14 +1533,6 @@
   </si>
   <si>
     <t>noFreeMapArea</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家未观察此地块</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>playerNotViewThisMapIndex</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -5885,10 +5877,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C216"/>
+  <dimension ref="A1:C215"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" topLeftCell="A197" workbookViewId="0">
-      <selection activeCell="A217" sqref="A217"/>
+      <selection activeCell="D212" sqref="D212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -7566,7 +7558,7 @@
         <v>651</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="20" customHeight="1">
@@ -7758,7 +7750,7 @@
     </row>
     <row r="170" spans="1:3" ht="20" customHeight="1">
       <c r="A170" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B170" s="3">
         <v>669</v>
@@ -7769,7 +7761,7 @@
     </row>
     <row r="171" spans="1:3" ht="20" customHeight="1">
       <c r="A171" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B171" s="3">
         <v>670</v>
@@ -7780,7 +7772,7 @@
     </row>
     <row r="172" spans="1:3" ht="20" customHeight="1">
       <c r="A172" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B172" s="3">
         <v>673</v>
@@ -7791,13 +7783,13 @@
     </row>
     <row r="173" spans="1:3" ht="20" customHeight="1">
       <c r="A173" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B173" s="3">
         <v>674</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="20" customHeight="1">
@@ -8165,43 +8157,43 @@
     </row>
     <row r="207" spans="1:3" ht="20" customHeight="1">
       <c r="A207" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B207" s="1">
+        <v>709</v>
+      </c>
+      <c r="C207" s="1" t="s">
         <v>407</v>
-      </c>
-      <c r="B207" s="1">
-        <v>708</v>
-      </c>
-      <c r="C207" s="1" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="20" customHeight="1">
       <c r="A208" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B208" s="1">
+        <v>710</v>
+      </c>
+      <c r="C208" s="1" t="s">
         <v>408</v>
-      </c>
-      <c r="B208" s="1">
-        <v>709</v>
-      </c>
-      <c r="C208" s="1" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="209" spans="1:3" ht="20" customHeight="1">
       <c r="A209" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B209" s="1">
+        <v>711</v>
+      </c>
+      <c r="C209" s="1" t="s">
         <v>411</v>
-      </c>
-      <c r="B209" s="1">
-        <v>710</v>
-      </c>
-      <c r="C209" s="1" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="210" spans="1:3" ht="20" customHeight="1">
       <c r="A210" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B210" s="1">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>413</v>
@@ -8209,24 +8201,24 @@
     </row>
     <row r="211" spans="1:3" ht="20" customHeight="1">
       <c r="A211" s="1" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B211" s="1">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="20" customHeight="1">
       <c r="A212" s="1" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="B212" s="1">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
     </row>
     <row r="213" spans="1:3" ht="20" customHeight="1">
@@ -8234,7 +8226,7 @@
         <v>425</v>
       </c>
       <c r="B213" s="1">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="C213" s="1" t="s">
         <v>424</v>
@@ -8244,8 +8236,8 @@
       <c r="A214" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="B214" s="1">
-        <v>715</v>
+      <c r="B214" s="3">
+        <v>716</v>
       </c>
       <c r="C214" s="1" t="s">
         <v>426</v>
@@ -8255,22 +8247,11 @@
       <c r="A215" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="B215" s="3">
-        <v>716</v>
+      <c r="B215" s="1">
+        <v>717</v>
       </c>
       <c r="C215" s="1" t="s">
         <v>428</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" ht="20" customHeight="1">
-      <c r="A216" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="B216" s="1">
-        <v>717</v>
-      </c>
-      <c r="C216" s="1" t="s">
-        <v>430</v>
       </c>
     </row>
   </sheetData>

--- a/Dragonfall/gameData/shared/Errors.xlsx
+++ b/Dragonfall/gameData/shared/Errors.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="428">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -1381,14 +1381,6 @@
   </si>
   <si>
     <t>firstJoinAllianceRewardAlreadyGeted</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>新手引导已经完成</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>fteAlreadyFinished</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -5877,10 +5869,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C215"/>
+  <dimension ref="A1:C214"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A197" workbookViewId="0">
-      <selection activeCell="D212" sqref="D212"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A175" workbookViewId="0">
+      <selection activeCell="C189" sqref="C189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5902,13 +5894,13 @@
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B2" s="3">
         <v>500</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="20" customHeight="1">
@@ -7558,7 +7550,7 @@
         <v>651</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="20" customHeight="1">
@@ -7750,7 +7742,7 @@
     </row>
     <row r="170" spans="1:3" ht="20" customHeight="1">
       <c r="A170" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B170" s="3">
         <v>669</v>
@@ -7761,7 +7753,7 @@
     </row>
     <row r="171" spans="1:3" ht="20" customHeight="1">
       <c r="A171" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B171" s="3">
         <v>670</v>
@@ -7772,7 +7764,7 @@
     </row>
     <row r="172" spans="1:3" ht="20" customHeight="1">
       <c r="A172" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B172" s="3">
         <v>673</v>
@@ -7783,13 +7775,13 @@
     </row>
     <row r="173" spans="1:3" ht="20" customHeight="1">
       <c r="A173" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B173" s="3">
         <v>674</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="20" customHeight="1">
@@ -7959,13 +7951,13 @@
     </row>
     <row r="189" spans="1:3" ht="20" customHeight="1">
       <c r="A189" s="1" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B189" s="1">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="20" customHeight="1">
@@ -7973,7 +7965,7 @@
         <v>373</v>
       </c>
       <c r="B190" s="1">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>372</v>
@@ -7984,7 +7976,7 @@
         <v>375</v>
       </c>
       <c r="B191" s="1">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>374</v>
@@ -7995,7 +7987,7 @@
         <v>377</v>
       </c>
       <c r="B192" s="1">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>376</v>
@@ -8006,7 +7998,7 @@
         <v>379</v>
       </c>
       <c r="B193" s="1">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>378</v>
@@ -8017,7 +8009,7 @@
         <v>381</v>
       </c>
       <c r="B194" s="1">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>380</v>
@@ -8028,7 +8020,7 @@
         <v>383</v>
       </c>
       <c r="B195" s="1">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>382</v>
@@ -8036,24 +8028,24 @@
     </row>
     <row r="196" spans="1:3" ht="20" customHeight="1">
       <c r="A196" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B196" s="1">
+        <v>698</v>
+      </c>
+      <c r="C196" s="1" t="s">
         <v>385</v>
-      </c>
-      <c r="B196" s="1">
-        <v>697</v>
-      </c>
-      <c r="C196" s="1" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="20" customHeight="1">
       <c r="A197" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B197" s="1">
+        <v>699</v>
+      </c>
+      <c r="C197" s="1" t="s">
         <v>386</v>
-      </c>
-      <c r="B197" s="1">
-        <v>698</v>
-      </c>
-      <c r="C197" s="1" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="20" customHeight="1">
@@ -8061,7 +8053,7 @@
         <v>389</v>
       </c>
       <c r="B198" s="1">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="C198" s="1" t="s">
         <v>388</v>
@@ -8072,7 +8064,7 @@
         <v>391</v>
       </c>
       <c r="B199" s="1">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="C199" s="1" t="s">
         <v>390</v>
@@ -8083,7 +8075,7 @@
         <v>393</v>
       </c>
       <c r="B200" s="1">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>392</v>
@@ -8094,7 +8086,7 @@
         <v>395</v>
       </c>
       <c r="B201" s="1">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>394</v>
@@ -8105,7 +8097,7 @@
         <v>397</v>
       </c>
       <c r="B202" s="1">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="C202" s="1" t="s">
         <v>396</v>
@@ -8116,7 +8108,7 @@
         <v>399</v>
       </c>
       <c r="B203" s="1">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>398</v>
@@ -8127,7 +8119,7 @@
         <v>401</v>
       </c>
       <c r="B204" s="1">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="C204" s="1" t="s">
         <v>400</v>
@@ -8138,7 +8130,7 @@
         <v>403</v>
       </c>
       <c r="B205" s="1">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="C205" s="1" t="s">
         <v>402</v>
@@ -8146,43 +8138,43 @@
     </row>
     <row r="206" spans="1:3" ht="20" customHeight="1">
       <c r="A206" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B206" s="1">
+        <v>709</v>
+      </c>
+      <c r="C206" s="1" t="s">
         <v>405</v>
-      </c>
-      <c r="B206" s="1">
-        <v>707</v>
-      </c>
-      <c r="C206" s="1" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="207" spans="1:3" ht="20" customHeight="1">
       <c r="A207" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B207" s="1">
+        <v>710</v>
+      </c>
+      <c r="C207" s="1" t="s">
         <v>406</v>
-      </c>
-      <c r="B207" s="1">
-        <v>709</v>
-      </c>
-      <c r="C207" s="1" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="20" customHeight="1">
       <c r="A208" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B208" s="1">
+        <v>711</v>
+      </c>
+      <c r="C208" s="1" t="s">
         <v>409</v>
-      </c>
-      <c r="B208" s="1">
-        <v>710</v>
-      </c>
-      <c r="C208" s="1" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="209" spans="1:3" ht="20" customHeight="1">
       <c r="A209" s="1" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B209" s="1">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>411</v>
@@ -8190,24 +8182,24 @@
     </row>
     <row r="210" spans="1:3" ht="20" customHeight="1">
       <c r="A210" s="1" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B210" s="1">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="211" spans="1:3" ht="20" customHeight="1">
       <c r="A211" s="1" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="B211" s="1">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="20" customHeight="1">
@@ -8215,7 +8207,7 @@
         <v>423</v>
       </c>
       <c r="B212" s="1">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="C212" s="1" t="s">
         <v>422</v>
@@ -8225,8 +8217,8 @@
       <c r="A213" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="B213" s="1">
-        <v>715</v>
+      <c r="B213" s="3">
+        <v>716</v>
       </c>
       <c r="C213" s="1" t="s">
         <v>424</v>
@@ -8236,22 +8228,11 @@
       <c r="A214" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="B214" s="3">
-        <v>716</v>
+      <c r="B214" s="1">
+        <v>717</v>
       </c>
       <c r="C214" s="1" t="s">
         <v>426</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" ht="20" customHeight="1">
-      <c r="A215" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="B215" s="1">
-        <v>717</v>
-      </c>
-      <c r="C215" s="1" t="s">
-        <v>428</v>
       </c>
     </row>
   </sheetData>

--- a/Dragonfall/gameData/shared/Errors.xlsx
+++ b/Dragonfall/gameData/shared/Errors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="440" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
+    <workbookView xWindow="-26220" yWindow="2940" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="errors" sheetId="24" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="436">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -1618,6 +1618,38 @@
   </si>
   <si>
     <t>doNotNeedGemSpeedup</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>playerNameNotLegal</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家昵称不合法</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>allianceNameNotLegal</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>联盟昵称不合法</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>无效的活动信息</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>invalidActivity</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有可领取的奖励</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>noAvailableRewardsCanGet</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1756,7 +1788,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1824">
+  <cellStyleXfs count="1832">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -3585,6 +3617,14 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3598,7 +3638,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1824">
+  <cellStyles count="1832">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -4513,6 +4553,10 @@
     <cellStyle name="超链接" xfId="1818" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1820" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1822" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1824" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1826" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1828" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1830" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -5420,6 +5464,10 @@
     <cellStyle name="访问过的超链接" xfId="1819" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1821" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1823" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1825" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1827" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1829" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1831" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -5869,10 +5917,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C214"/>
+  <dimension ref="A1:C218"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A175" workbookViewId="0">
-      <selection activeCell="C189" sqref="C189"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A197" workbookViewId="0">
+      <selection activeCell="A219" sqref="A219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -8235,6 +8283,50 @@
         <v>426</v>
       </c>
     </row>
+    <row r="215" spans="1:3" ht="20" customHeight="1">
+      <c r="A215" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B215" s="1">
+        <v>718</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" ht="20" customHeight="1">
+      <c r="A216" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B216" s="1">
+        <v>719</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" ht="20" customHeight="1">
+      <c r="A217" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="B217" s="1">
+        <v>720</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" ht="20" customHeight="1">
+      <c r="A218" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="B218" s="1">
+        <v>721</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>434</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Dragonfall/gameData/shared/Errors.xlsx
+++ b/Dragonfall/gameData/shared/Errors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-26220" yWindow="2940" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
+    <workbookView xWindow="4620" yWindow="2780" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="errors" sheetId="24" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="438">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -1650,6 +1650,14 @@
   </si>
   <si>
     <t>noAvailableRewardsCanGet</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>canNotQuitAllianceNow</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>还不能退出联盟</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -5917,10 +5925,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C218"/>
+  <dimension ref="A1:C219"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" topLeftCell="A197" workbookViewId="0">
-      <selection activeCell="A219" sqref="A219"/>
+      <selection activeCell="C220" sqref="C220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -8327,6 +8335,17 @@
         <v>434</v>
       </c>
     </row>
+    <row r="219" spans="1:3" ht="20" customHeight="1">
+      <c r="A219" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B219" s="1">
+        <v>722</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Dragonfall/gameData/shared/Errors.xlsx
+++ b/Dragonfall/gameData/shared/Errors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4620" yWindow="2780" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
+    <workbookView xWindow="1160" yWindow="260" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="errors" sheetId="24" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="434">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -1112,27 +1112,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>玩家已经对目标玩家派出了协防部队</t>
-  </si>
-  <si>
-    <t>playerAlreadySendHelpDefenceTroopToTargetPlayer</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>目标玩家协防部队数量已达最大</t>
-  </si>
-  <si>
-    <t>targetPlayersHelpDefenceTroopsCountReachMax</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家没有协防部队驻扎在目标玩家城市</t>
-  </si>
-  <si>
-    <t>noHelpDefenceTroopInTargetPlayerCity</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>联盟未处于战争期</t>
   </si>
   <si>
@@ -1176,13 +1155,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>没有此玩家的协防部队</t>
-  </si>
-  <si>
-    <t>noHelpDefenceTroopByThePlayer</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>此道具未在联盟商店出售</t>
   </si>
   <si>
@@ -1658,6 +1630,22 @@
   </si>
   <si>
     <t>还不能退出联盟</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>你不是墨子</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>youAreNotTheMod</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>无效的联盟活动信息</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>invalidAllianceActivity</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1796,7 +1784,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1832">
+  <cellStyleXfs count="1860">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -3633,6 +3621,34 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3646,7 +3662,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1832">
+  <cellStyles count="1860">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -4565,6 +4581,20 @@
     <cellStyle name="超链接" xfId="1826" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1828" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1830" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1832" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1834" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1836" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1838" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1840" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1842" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1844" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1846" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1848" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1850" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1852" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1854" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1856" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1858" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -5476,6 +5506,20 @@
     <cellStyle name="访问过的超链接" xfId="1827" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1829" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1831" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1833" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1835" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1837" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1839" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1841" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1843" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1845" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1847" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1849" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1851" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1853" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1855" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1857" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1859" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -5925,10 +5969,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C219"/>
+  <dimension ref="A1:C217"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A197" workbookViewId="0">
-      <selection activeCell="C220" sqref="C220"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="C152" sqref="C152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5950,13 +5994,13 @@
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="B2" s="3">
         <v>500</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="20" customHeight="1">
@@ -6346,13 +6390,13 @@
     </row>
     <row r="38" spans="1:3" ht="20" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="B38" s="3">
         <v>536</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="20" customHeight="1">
@@ -7105,13 +7149,13 @@
     </row>
     <row r="107" spans="1:3" ht="20" customHeight="1">
       <c r="A107" s="1" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="B107" s="3">
         <v>605</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="20" customHeight="1">
@@ -7160,13 +7204,13 @@
     </row>
     <row r="112" spans="1:3" ht="20" customHeight="1">
       <c r="A112" s="1" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="B112" s="3">
         <v>610</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="20" customHeight="1">
@@ -7606,7 +7650,7 @@
         <v>651</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="20" customHeight="1">
@@ -7614,7 +7658,7 @@
         <v>297</v>
       </c>
       <c r="B153" s="3">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>296</v>
@@ -7625,7 +7669,7 @@
         <v>299</v>
       </c>
       <c r="B154" s="3">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>298</v>
@@ -7636,7 +7680,7 @@
         <v>301</v>
       </c>
       <c r="B155" s="3">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>300</v>
@@ -7647,7 +7691,7 @@
         <v>303</v>
       </c>
       <c r="B156" s="3">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>302</v>
@@ -7658,7 +7702,7 @@
         <v>305</v>
       </c>
       <c r="B157" s="3">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>304</v>
@@ -7669,7 +7713,7 @@
         <v>307</v>
       </c>
       <c r="B158" s="3">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>306</v>
@@ -7680,7 +7724,7 @@
         <v>309</v>
       </c>
       <c r="B159" s="3">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>308</v>
@@ -7691,7 +7735,7 @@
         <v>311</v>
       </c>
       <c r="B160" s="3">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>310</v>
@@ -7702,7 +7746,7 @@
         <v>313</v>
       </c>
       <c r="B161" s="3">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>312</v>
@@ -7713,7 +7757,7 @@
         <v>315</v>
       </c>
       <c r="B162" s="3">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>314</v>
@@ -7724,7 +7768,7 @@
         <v>317</v>
       </c>
       <c r="B163" s="3">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>316</v>
@@ -7735,7 +7779,7 @@
         <v>319</v>
       </c>
       <c r="B164" s="3">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>318</v>
@@ -7746,7 +7790,7 @@
         <v>321</v>
       </c>
       <c r="B165" s="3">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>320</v>
@@ -7754,76 +7798,76 @@
     </row>
     <row r="166" spans="1:3" ht="20" customHeight="1">
       <c r="A166" s="1" t="s">
-        <v>323</v>
+        <v>409</v>
       </c>
       <c r="B166" s="3">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>322</v>
+        <v>336</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="20" customHeight="1">
       <c r="A167" s="1" t="s">
-        <v>325</v>
+        <v>410</v>
       </c>
       <c r="B167" s="3">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="20" customHeight="1">
       <c r="A168" s="1" t="s">
-        <v>327</v>
+        <v>411</v>
       </c>
       <c r="B168" s="3">
-        <v>667</v>
+        <v>673</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="20" customHeight="1">
       <c r="A169" s="1" t="s">
-        <v>329</v>
+        <v>407</v>
       </c>
       <c r="B169" s="3">
-        <v>668</v>
+        <v>674</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>328</v>
+        <v>408</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="20" customHeight="1">
       <c r="A170" s="1" t="s">
-        <v>417</v>
+        <v>328</v>
       </c>
       <c r="B170" s="3">
-        <v>669</v>
+        <v>675</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>344</v>
+        <v>327</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="20" customHeight="1">
       <c r="A171" s="1" t="s">
-        <v>418</v>
+        <v>329</v>
       </c>
       <c r="B171" s="3">
-        <v>670</v>
+        <v>676</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>345</v>
+        <v>179</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="20" customHeight="1">
       <c r="A172" s="1" t="s">
-        <v>419</v>
+        <v>331</v>
       </c>
       <c r="B172" s="3">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>330</v>
@@ -7831,68 +7875,68 @@
     </row>
     <row r="173" spans="1:3" ht="20" customHeight="1">
       <c r="A173" s="1" t="s">
-        <v>415</v>
+        <v>333</v>
       </c>
       <c r="B173" s="3">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>416</v>
+        <v>332</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="20" customHeight="1">
       <c r="A174" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B174" s="3">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="20" customHeight="1">
       <c r="A175" s="1" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B175" s="3">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>179</v>
+        <v>338</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="20" customHeight="1">
       <c r="A176" s="1" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B176" s="3">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="20" customHeight="1">
       <c r="A177" s="1" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B177" s="3">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="20" customHeight="1">
       <c r="A178" s="1" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B178" s="3">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="20" customHeight="1">
@@ -7900,7 +7944,7 @@
         <v>347</v>
       </c>
       <c r="B179" s="3">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>346</v>
@@ -7908,54 +7952,54 @@
     </row>
     <row r="180" spans="1:3" ht="20" customHeight="1">
       <c r="A180" s="1" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B180" s="3">
-        <v>681</v>
+        <v>685</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="20" customHeight="1">
       <c r="A181" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B181" s="3">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="20" customHeight="1">
       <c r="A182" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="B182" s="3">
-        <v>683</v>
+        <v>356</v>
+      </c>
+      <c r="B182" s="1">
+        <v>687</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="20" customHeight="1">
       <c r="A183" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B183" s="1">
+        <v>688</v>
+      </c>
+      <c r="C183" s="1" t="s">
         <v>355</v>
-      </c>
-      <c r="B183" s="3">
-        <v>684</v>
-      </c>
-      <c r="C183" s="1" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="20" customHeight="1">
       <c r="A184" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="B184" s="3">
-        <v>685</v>
+      <c r="B184" s="1">
+        <v>689</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>358</v>
@@ -7963,46 +8007,46 @@
     </row>
     <row r="185" spans="1:3" ht="20" customHeight="1">
       <c r="A185" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="B185" s="3">
-        <v>686</v>
+        <v>363</v>
+      </c>
+      <c r="B185" s="1">
+        <v>691</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="20" customHeight="1">
       <c r="A186" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B186" s="1">
+        <v>692</v>
+      </c>
+      <c r="C186" s="1" t="s">
         <v>364</v>
-      </c>
-      <c r="B186" s="1">
-        <v>687</v>
-      </c>
-      <c r="C186" s="1" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="20" customHeight="1">
       <c r="A187" s="1" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B187" s="1">
-        <v>688</v>
+        <v>693</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="20" customHeight="1">
       <c r="A188" s="1" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B188" s="1">
-        <v>689</v>
+        <v>694</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="20" customHeight="1">
@@ -8010,7 +8054,7 @@
         <v>371</v>
       </c>
       <c r="B189" s="1">
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>370</v>
@@ -8021,7 +8065,7 @@
         <v>373</v>
       </c>
       <c r="B190" s="1">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>372</v>
@@ -8032,7 +8076,7 @@
         <v>375</v>
       </c>
       <c r="B191" s="1">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>374</v>
@@ -8040,13 +8084,13 @@
     </row>
     <row r="192" spans="1:3" ht="20" customHeight="1">
       <c r="A192" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B192" s="1">
+        <v>698</v>
+      </c>
+      <c r="C192" s="1" t="s">
         <v>377</v>
-      </c>
-      <c r="B192" s="1">
-        <v>694</v>
-      </c>
-      <c r="C192" s="1" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="20" customHeight="1">
@@ -8054,7 +8098,7 @@
         <v>379</v>
       </c>
       <c r="B193" s="1">
-        <v>695</v>
+        <v>699</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>378</v>
@@ -8065,7 +8109,7 @@
         <v>381</v>
       </c>
       <c r="B194" s="1">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>380</v>
@@ -8076,7 +8120,7 @@
         <v>383</v>
       </c>
       <c r="B195" s="1">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>382</v>
@@ -8084,13 +8128,13 @@
     </row>
     <row r="196" spans="1:3" ht="20" customHeight="1">
       <c r="A196" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B196" s="1">
+        <v>702</v>
+      </c>
+      <c r="C196" s="1" t="s">
         <v>384</v>
-      </c>
-      <c r="B196" s="1">
-        <v>698</v>
-      </c>
-      <c r="C196" s="1" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="20" customHeight="1">
@@ -8098,7 +8142,7 @@
         <v>387</v>
       </c>
       <c r="B197" s="1">
-        <v>699</v>
+        <v>703</v>
       </c>
       <c r="C197" s="1" t="s">
         <v>386</v>
@@ -8109,7 +8153,7 @@
         <v>389</v>
       </c>
       <c r="B198" s="1">
-        <v>700</v>
+        <v>704</v>
       </c>
       <c r="C198" s="1" t="s">
         <v>388</v>
@@ -8120,7 +8164,7 @@
         <v>391</v>
       </c>
       <c r="B199" s="1">
-        <v>701</v>
+        <v>705</v>
       </c>
       <c r="C199" s="1" t="s">
         <v>390</v>
@@ -8131,7 +8175,7 @@
         <v>393</v>
       </c>
       <c r="B200" s="1">
-        <v>702</v>
+        <v>706</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>392</v>
@@ -8142,7 +8186,7 @@
         <v>395</v>
       </c>
       <c r="B201" s="1">
-        <v>703</v>
+        <v>707</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>394</v>
@@ -8150,13 +8194,13 @@
     </row>
     <row r="202" spans="1:3" ht="20" customHeight="1">
       <c r="A202" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B202" s="1">
+        <v>709</v>
+      </c>
+      <c r="C202" s="1" t="s">
         <v>397</v>
-      </c>
-      <c r="B202" s="1">
-        <v>704</v>
-      </c>
-      <c r="C202" s="1" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="203" spans="1:3" ht="20" customHeight="1">
@@ -8164,7 +8208,7 @@
         <v>399</v>
       </c>
       <c r="B203" s="1">
-        <v>705</v>
+        <v>710</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>398</v>
@@ -8172,109 +8216,109 @@
     </row>
     <row r="204" spans="1:3" ht="20" customHeight="1">
       <c r="A204" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B204" s="1">
+        <v>711</v>
+      </c>
+      <c r="C204" s="1" t="s">
         <v>401</v>
-      </c>
-      <c r="B204" s="1">
-        <v>706</v>
-      </c>
-      <c r="C204" s="1" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="20" customHeight="1">
       <c r="A205" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B205" s="1">
+        <v>712</v>
+      </c>
+      <c r="C205" s="1" t="s">
         <v>403</v>
-      </c>
-      <c r="B205" s="1">
-        <v>707</v>
-      </c>
-      <c r="C205" s="1" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="20" customHeight="1">
       <c r="A206" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B206" s="1">
+        <v>713</v>
+      </c>
+      <c r="C206" s="1" t="s">
         <v>404</v>
-      </c>
-      <c r="B206" s="1">
-        <v>709</v>
-      </c>
-      <c r="C206" s="1" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="207" spans="1:3" ht="20" customHeight="1">
       <c r="A207" s="1" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="B207" s="1">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="20" customHeight="1">
       <c r="A208" s="1" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="B208" s="1">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
     </row>
     <row r="209" spans="1:3" ht="20" customHeight="1">
       <c r="A209" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="B209" s="1">
-        <v>712</v>
+        <v>417</v>
+      </c>
+      <c r="B209" s="3">
+        <v>716</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
     </row>
     <row r="210" spans="1:3" ht="20" customHeight="1">
       <c r="A210" s="1" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="B210" s="1">
-        <v>713</v>
+        <v>717</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
     </row>
     <row r="211" spans="1:3" ht="20" customHeight="1">
       <c r="A211" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B211" s="1">
+        <v>718</v>
+      </c>
+      <c r="C211" s="1" t="s">
         <v>421</v>
-      </c>
-      <c r="B211" s="1">
-        <v>714</v>
-      </c>
-      <c r="C211" s="1" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="20" customHeight="1">
       <c r="A212" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B212" s="1">
+        <v>719</v>
+      </c>
+      <c r="C212" s="1" t="s">
         <v>423</v>
-      </c>
-      <c r="B212" s="1">
-        <v>715</v>
-      </c>
-      <c r="C212" s="1" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="213" spans="1:3" ht="20" customHeight="1">
       <c r="A213" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="B213" s="3">
-        <v>716</v>
+      <c r="B213" s="1">
+        <v>720</v>
       </c>
       <c r="C213" s="1" t="s">
         <v>424</v>
@@ -8285,7 +8329,7 @@
         <v>427</v>
       </c>
       <c r="B214" s="1">
-        <v>717</v>
+        <v>721</v>
       </c>
       <c r="C214" s="1" t="s">
         <v>426</v>
@@ -8296,7 +8340,7 @@
         <v>428</v>
       </c>
       <c r="B215" s="1">
-        <v>718</v>
+        <v>722</v>
       </c>
       <c r="C215" s="1" t="s">
         <v>429</v>
@@ -8304,13 +8348,13 @@
     </row>
     <row r="216" spans="1:3" ht="20" customHeight="1">
       <c r="A216" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B216" s="1">
+        <v>723</v>
+      </c>
+      <c r="C216" s="1" t="s">
         <v>430</v>
-      </c>
-      <c r="B216" s="1">
-        <v>719</v>
-      </c>
-      <c r="C216" s="1" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="217" spans="1:3" ht="20" customHeight="1">
@@ -8318,32 +8362,10 @@
         <v>433</v>
       </c>
       <c r="B217" s="1">
-        <v>720</v>
+        <v>724</v>
       </c>
       <c r="C217" s="1" t="s">
         <v>432</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" ht="20" customHeight="1">
-      <c r="A218" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="B218" s="1">
-        <v>721</v>
-      </c>
-      <c r="C218" s="1" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" ht="20" customHeight="1">
-      <c r="A219" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="B219" s="1">
-        <v>722</v>
-      </c>
-      <c r="C219" s="1" t="s">
-        <v>437</v>
       </c>
     </row>
   </sheetData>

--- a/Dragonfall/gameData/shared/Errors.xlsx
+++ b/Dragonfall/gameData/shared/Errors.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="260" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
+    <workbookView xWindow="32180" yWindow="-100" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="errors" sheetId="24" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="442">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -1647,6 +1647,30 @@
   <si>
     <t>invalidAllianceActivity</t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>playerAlreadySendHelpDefenceTroopToTargetPlayer</t>
+  </si>
+  <si>
+    <t>玩家已经对目标玩家派出了协防部队</t>
+  </si>
+  <si>
+    <t>targetPlayersHelpDefenceTroopsCountReachMax</t>
+  </si>
+  <si>
+    <t>目标玩家协防部队数量已达最大</t>
+  </si>
+  <si>
+    <t>noHelpDefenceTroopInTargetPlayerCity</t>
+  </si>
+  <si>
+    <t>玩家没有协防部队驻扎在目标玩家城市</t>
+  </si>
+  <si>
+    <t>noHelpDefenceTroopByThePlayer</t>
+  </si>
+  <si>
+    <t>没有此玩家的协防部队</t>
   </si>
 </sst>
 </file>
@@ -1784,7 +1808,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1860">
+  <cellStyleXfs count="1868">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -3649,6 +3673,14 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3662,7 +3694,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1860">
+  <cellStyles count="1868">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -4595,6 +4627,10 @@
     <cellStyle name="超链接" xfId="1854" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1856" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1858" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1860" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1862" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1864" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1866" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -5520,6 +5556,10 @@
     <cellStyle name="访问过的超链接" xfId="1855" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1857" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1859" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1861" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1863" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1865" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1867" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -5969,10 +6009,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C217"/>
+  <dimension ref="A1:C221"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="C152" sqref="C152"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="A162" sqref="A162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -7655,716 +7695,760 @@
     </row>
     <row r="153" spans="1:3" ht="20" customHeight="1">
       <c r="A153" s="1" t="s">
-        <v>297</v>
+        <v>434</v>
       </c>
       <c r="B153" s="3">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>296</v>
+        <v>435</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="20" customHeight="1">
       <c r="A154" s="1" t="s">
-        <v>299</v>
+        <v>436</v>
       </c>
       <c r="B154" s="3">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>298</v>
+        <v>437</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="20" customHeight="1">
       <c r="A155" s="1" t="s">
-        <v>301</v>
+        <v>438</v>
       </c>
       <c r="B155" s="3">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>300</v>
+        <v>439</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="20" customHeight="1">
       <c r="A156" s="1" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B156" s="3">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="20" customHeight="1">
       <c r="A157" s="1" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="B157" s="3">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="20" customHeight="1">
       <c r="A158" s="1" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B158" s="3">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="20" customHeight="1">
       <c r="A159" s="1" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B159" s="3">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="20" customHeight="1">
       <c r="A160" s="1" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="B160" s="3">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="20" customHeight="1">
       <c r="A161" s="1" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="B161" s="3">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="20" customHeight="1">
       <c r="A162" s="1" t="s">
-        <v>315</v>
+        <v>440</v>
       </c>
       <c r="B162" s="3">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>314</v>
+        <v>441</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="20" customHeight="1">
       <c r="A163" s="1" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="B163" s="3">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="20" customHeight="1">
       <c r="A164" s="1" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="B164" s="3">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="20" customHeight="1">
       <c r="A165" s="1" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="B165" s="3">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="20" customHeight="1">
       <c r="A166" s="1" t="s">
-        <v>409</v>
+        <v>315</v>
       </c>
       <c r="B166" s="3">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>336</v>
+        <v>314</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="20" customHeight="1">
       <c r="A167" s="1" t="s">
-        <v>410</v>
+        <v>317</v>
       </c>
       <c r="B167" s="3">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>337</v>
+        <v>316</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="20" customHeight="1">
       <c r="A168" s="1" t="s">
-        <v>411</v>
+        <v>319</v>
       </c>
       <c r="B168" s="3">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="20" customHeight="1">
       <c r="A169" s="1" t="s">
-        <v>407</v>
+        <v>321</v>
       </c>
       <c r="B169" s="3">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>408</v>
+        <v>320</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="20" customHeight="1">
       <c r="A170" s="1" t="s">
-        <v>328</v>
+        <v>409</v>
       </c>
       <c r="B170" s="3">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="20" customHeight="1">
       <c r="A171" s="1" t="s">
-        <v>329</v>
+        <v>410</v>
       </c>
       <c r="B171" s="3">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>179</v>
+        <v>337</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="20" customHeight="1">
       <c r="A172" s="1" t="s">
-        <v>331</v>
+        <v>411</v>
       </c>
       <c r="B172" s="3">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="20" customHeight="1">
       <c r="A173" s="1" t="s">
-        <v>333</v>
+        <v>407</v>
       </c>
       <c r="B173" s="3">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>332</v>
+        <v>408</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="20" customHeight="1">
       <c r="A174" s="1" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="B174" s="3">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="20" customHeight="1">
       <c r="A175" s="1" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="B175" s="3">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>338</v>
+        <v>179</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="20" customHeight="1">
       <c r="A176" s="1" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="B176" s="3">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="20" customHeight="1">
       <c r="A177" s="1" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="B177" s="3">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="20" customHeight="1">
       <c r="A178" s="1" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="B178" s="3">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="20" customHeight="1">
       <c r="A179" s="1" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="B179" s="3">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="20" customHeight="1">
       <c r="A180" s="1" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="B180" s="3">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="20" customHeight="1">
       <c r="A181" s="1" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="B181" s="3">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="20" customHeight="1">
       <c r="A182" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="B182" s="1">
-        <v>687</v>
+        <v>345</v>
+      </c>
+      <c r="B182" s="3">
+        <v>683</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="20" customHeight="1">
       <c r="A183" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="B183" s="1">
-        <v>688</v>
+        <v>347</v>
+      </c>
+      <c r="B183" s="3">
+        <v>684</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="20" customHeight="1">
       <c r="A184" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="B184" s="1">
-        <v>689</v>
+        <v>351</v>
+      </c>
+      <c r="B184" s="3">
+        <v>685</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="20" customHeight="1">
       <c r="A185" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="B185" s="1">
-        <v>691</v>
+        <v>353</v>
+      </c>
+      <c r="B185" s="3">
+        <v>686</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="20" customHeight="1">
       <c r="A186" s="1" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="B186" s="1">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="20" customHeight="1">
       <c r="A187" s="1" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="B187" s="1">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="20" customHeight="1">
       <c r="A188" s="1" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="B188" s="1">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="20" customHeight="1">
       <c r="A189" s="1" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="B189" s="1">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="20" customHeight="1">
       <c r="A190" s="1" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="B190" s="1">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="20" customHeight="1">
       <c r="A191" s="1" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="B191" s="1">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="20" customHeight="1">
       <c r="A192" s="1" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="B192" s="1">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="20" customHeight="1">
       <c r="A193" s="1" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="B193" s="1">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="20" customHeight="1">
       <c r="A194" s="1" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="B194" s="1">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
     </row>
     <row r="195" spans="1:3" ht="20" customHeight="1">
       <c r="A195" s="1" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="B195" s="1">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="20" customHeight="1">
       <c r="A196" s="1" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="B196" s="1">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="20" customHeight="1">
       <c r="A197" s="1" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="B197" s="1">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="20" customHeight="1">
       <c r="A198" s="1" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="B198" s="1">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="20" customHeight="1">
       <c r="A199" s="1" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="B199" s="1">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="20" customHeight="1">
       <c r="A200" s="1" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="B200" s="1">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="20" customHeight="1">
       <c r="A201" s="1" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="B201" s="1">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="20" customHeight="1">
       <c r="A202" s="1" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="B202" s="1">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
     </row>
     <row r="203" spans="1:3" ht="20" customHeight="1">
       <c r="A203" s="1" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="B203" s="1">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="20" customHeight="1">
       <c r="A204" s="1" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="B204" s="1">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="20" customHeight="1">
       <c r="A205" s="1" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="B205" s="1">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="20" customHeight="1">
       <c r="A206" s="1" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="B206" s="1">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
     </row>
     <row r="207" spans="1:3" ht="20" customHeight="1">
       <c r="A207" s="1" t="s">
-        <v>413</v>
+        <v>399</v>
       </c>
       <c r="B207" s="1">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="20" customHeight="1">
       <c r="A208" s="1" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="B208" s="1">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
     </row>
     <row r="209" spans="1:3" ht="20" customHeight="1">
       <c r="A209" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="B209" s="3">
-        <v>716</v>
+        <v>406</v>
+      </c>
+      <c r="B209" s="1">
+        <v>712</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
     </row>
     <row r="210" spans="1:3" ht="20" customHeight="1">
       <c r="A210" s="1" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
       <c r="B210" s="1">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>418</v>
+        <v>404</v>
       </c>
     </row>
     <row r="211" spans="1:3" ht="20" customHeight="1">
       <c r="A211" s="1" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="B211" s="1">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="20" customHeight="1">
       <c r="A212" s="1" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="B212" s="1">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
     </row>
     <row r="213" spans="1:3" ht="20" customHeight="1">
       <c r="A213" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="B213" s="1">
-        <v>720</v>
+        <v>417</v>
+      </c>
+      <c r="B213" s="3">
+        <v>716</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
     </row>
     <row r="214" spans="1:3" ht="20" customHeight="1">
       <c r="A214" s="1" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="B214" s="1">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
     </row>
     <row r="215" spans="1:3" ht="20" customHeight="1">
       <c r="A215" s="1" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="B215" s="1">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
     </row>
     <row r="216" spans="1:3" ht="20" customHeight="1">
       <c r="A216" s="1" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="B216" s="1">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="217" spans="1:3" ht="20" customHeight="1">
       <c r="A217" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B217" s="1">
+        <v>720</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" ht="20" customHeight="1">
+      <c r="A218" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B218" s="1">
+        <v>721</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" ht="20" customHeight="1">
+      <c r="A219" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B219" s="1">
+        <v>722</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" ht="20" customHeight="1">
+      <c r="A220" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B220" s="1">
+        <v>723</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" ht="20" customHeight="1">
+      <c r="A221" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="B217" s="1">
+      <c r="B221" s="1">
         <v>724</v>
       </c>
-      <c r="C217" s="1" t="s">
+      <c r="C221" s="1" t="s">
         <v>432</v>
       </c>
     </row>

--- a/Dragonfall/gameData/shared/Errors.xlsx
+++ b/Dragonfall/gameData/shared/Errors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="32180" yWindow="-100" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
+    <workbookView xWindow="1300" yWindow="340" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="errors" sheetId="24" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="444">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -1671,6 +1671,14 @@
   </si>
   <si>
     <t>没有此玩家的协防部队</t>
+  </si>
+  <si>
+    <t>现在还不能进行协防</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>canNotHelpDefenceNow</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1808,7 +1816,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1868">
+  <cellStyleXfs count="1876">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -3681,6 +3689,14 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3694,7 +3710,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1868">
+  <cellStyles count="1876">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -4631,6 +4647,10 @@
     <cellStyle name="超链接" xfId="1862" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1864" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1866" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1868" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1870" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1872" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1874" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -5560,6 +5580,10 @@
     <cellStyle name="访问过的超链接" xfId="1863" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1865" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1867" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1869" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1871" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1873" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1875" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -6009,10 +6033,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C221"/>
+  <dimension ref="A1:C222"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="A162" sqref="A162"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A206" workbookViewId="0">
+      <selection activeCell="C222" sqref="C222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -8452,6 +8476,17 @@
         <v>432</v>
       </c>
     </row>
+    <row r="222" spans="1:3" ht="20" customHeight="1">
+      <c r="A222" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="B222" s="1">
+        <v>725</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>442</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Dragonfall/gameData/shared/Errors.xlsx
+++ b/Dragonfall/gameData/shared/Errors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1300" yWindow="340" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
+    <workbookView xWindow="740" yWindow="280" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="errors" sheetId="24" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="446">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -1678,6 +1678,14 @@
   </si>
   <si>
     <t>canNotHelpDefenceNow</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>正遭受攻击,不能退出移动城市</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>beAttackedNowCanNotMoveCityNow</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1816,7 +1824,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1876">
+  <cellStyleXfs count="1884">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -3697,6 +3705,14 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3710,7 +3726,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1876">
+  <cellStyles count="1884">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -4651,6 +4667,10 @@
     <cellStyle name="超链接" xfId="1870" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1872" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1874" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1876" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1878" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1880" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1882" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -5584,6 +5604,10 @@
     <cellStyle name="访问过的超链接" xfId="1871" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1873" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1875" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1877" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1879" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1881" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1883" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -6033,10 +6057,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C222"/>
+  <dimension ref="A1:C223"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" topLeftCell="A206" workbookViewId="0">
-      <selection activeCell="C222" sqref="C222"/>
+      <selection activeCell="E220" sqref="E220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -8487,6 +8511,17 @@
         <v>442</v>
       </c>
     </row>
+    <row r="223" spans="1:3" ht="20" customHeight="1">
+      <c r="A223" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B223" s="1">
+        <v>726</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>444</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Dragonfall/gameData/shared/Errors.xlsx
+++ b/Dragonfall/gameData/shared/Errors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="740" yWindow="280" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27860" windowHeight="17540" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="errors" sheetId="24" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="448">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -1686,6 +1686,14 @@
   </si>
   <si>
     <t>beAttackedNowCanNotMoveCityNow</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标已不是墨子,不能回复</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>targetNotModNowCanNotReply</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1824,7 +1832,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1884">
+  <cellStyleXfs count="1898">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -3713,6 +3721,20 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3726,7 +3748,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1884">
+  <cellStyles count="1898">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -4671,6 +4693,13 @@
     <cellStyle name="超链接" xfId="1878" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1880" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1882" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1884" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1886" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1888" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1890" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1892" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1894" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1896" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -5608,6 +5637,13 @@
     <cellStyle name="访问过的超链接" xfId="1879" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1881" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1883" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1885" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1887" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1889" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1891" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1893" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1895" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1897" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -6057,10 +6093,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C223"/>
+  <dimension ref="A1:C224"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" topLeftCell="A206" workbookViewId="0">
-      <selection activeCell="E220" sqref="E220"/>
+      <selection activeCell="E222" sqref="E222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -8522,6 +8558,17 @@
         <v>444</v>
       </c>
     </row>
+    <row r="224" spans="1:3" ht="20" customHeight="1">
+      <c r="A224" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="B224" s="1">
+        <v>727</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Dragonfall/gameData/shared/Errors.xlsx
+++ b/Dragonfall/gameData/shared/Errors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27860" windowHeight="17540" tabRatio="883"/>
+    <workbookView xWindow="80" yWindow="0" windowWidth="27860" windowHeight="17540" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="errors" sheetId="24" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="452">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -1694,6 +1694,22 @@
   </si>
   <si>
     <t>targetNotModNowCanNotReply</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>还不能领取累计充值奖励</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>canNotGetTotalIAPRewardsNow</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>还不能领取月卡每日奖励</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>canNotGetMonthcardRewardsNow</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1832,7 +1848,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1898">
+  <cellStyleXfs count="1920">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -3735,6 +3751,28 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3748,7 +3786,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1898">
+  <cellStyles count="1920">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -4700,6 +4738,17 @@
     <cellStyle name="超链接" xfId="1892" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1894" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1896" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1898" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1900" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1902" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1904" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1906" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1908" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1910" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1912" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1914" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1916" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1918" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -5644,6 +5693,17 @@
     <cellStyle name="访问过的超链接" xfId="1893" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1895" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1897" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1899" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1901" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1903" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1905" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1907" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1909" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1911" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1913" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1915" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1917" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1919" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -6093,10 +6153,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C224"/>
+  <dimension ref="A1:C226"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" topLeftCell="A206" workbookViewId="0">
-      <selection activeCell="E222" sqref="E222"/>
+      <selection activeCell="E212" sqref="E212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -8569,6 +8629,28 @@
         <v>446</v>
       </c>
     </row>
+    <row r="225" spans="1:3" ht="20" customHeight="1">
+      <c r="A225" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B225" s="1">
+        <v>728</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" ht="20" customHeight="1">
+      <c r="A226" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B226" s="1">
+        <v>729</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Dragonfall/gameData/shared/Errors.xlsx
+++ b/Dragonfall/gameData/shared/Errors.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27322"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="0" windowWidth="27860" windowHeight="17540" tabRatio="883"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="454">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -1710,6 +1710,14 @@
   </si>
   <si>
     <t>canNotGetMonthcardRewardsNow</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>还不能使用城防大师</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>canNotUseMasterOfDefenderNow</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -6153,10 +6161,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C226"/>
+  <dimension ref="A1:C227"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" topLeftCell="A206" workbookViewId="0">
-      <selection activeCell="E212" sqref="E212"/>
+      <selection activeCell="A228" sqref="A228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -8651,6 +8659,17 @@
         <v>450</v>
       </c>
     </row>
+    <row r="227" spans="1:3" ht="20" customHeight="1">
+      <c r="A227" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B227" s="1">
+        <v>730</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Dragonfall/gameData/shared/Errors.xlsx
+++ b/Dragonfall/gameData/shared/Errors.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27322"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27430"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="0" windowWidth="27860" windowHeight="17540" tabRatio="883"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="456">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -1718,6 +1718,13 @@
   </si>
   <si>
     <t>canNotUseMasterOfDefenderNow</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>wallWasBrokenCanNotSendTroopsOut</t>
+  </si>
+  <si>
+    <t>城墙已被攻破,不能出兵</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -6161,10 +6168,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C227"/>
+  <dimension ref="A1:C228"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" topLeftCell="A206" workbookViewId="0">
-      <selection activeCell="A228" sqref="A228"/>
+      <selection activeCell="C227" sqref="C227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -8670,6 +8677,17 @@
         <v>452</v>
       </c>
     </row>
+    <row r="228" spans="1:3" ht="20" customHeight="1">
+      <c r="A228" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B228" s="1">
+        <v>731</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>455</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
